--- a/DateBase/orders/Dang Nguyen_2025-7-2.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-7-2.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L44"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -561,15 +561,15 @@
     </row>
     <row r="16">
       <c r="C16" t="str">
-        <v>49_亚丁_Pasta Rosata_Gerbera L._10stems</v>
+        <v>451_景天_undefined_undefined_1bunch</v>
       </c>
       <c r="F16" t="str">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
       <c r="C17" t="str">
-        <v>451_景天_undefined_undefined_1bunch</v>
+        <v>585_洋牡丹红_undefined_undefined_1bunch</v>
       </c>
       <c r="F17" t="str">
         <v>5</v>
@@ -577,23 +577,23 @@
     </row>
     <row r="18">
       <c r="C18" t="str">
-        <v>585_洋牡丹红_undefined_undefined_1bunch</v>
+        <v>586_洋牡丹白_undefined_undefined_1bunch</v>
       </c>
       <c r="F18" t="str">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
       <c r="C19" t="str">
-        <v>586_洋牡丹白_undefined_undefined_1bunch</v>
+        <v>591_洋牡丹黑_undefined_undefined_1bunch</v>
       </c>
       <c r="F19" t="str">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
       <c r="C20" t="str">
-        <v>591_洋牡丹黑_undefined_undefined_1bunch</v>
+        <v>589_洋牡丹香槟_undefined_undefined_1bunch</v>
       </c>
       <c r="F20" t="str">
         <v>5</v>
@@ -601,7 +601,7 @@
     </row>
     <row r="21">
       <c r="C21" t="str">
-        <v>589_洋牡丹香槟_undefined_undefined_1bunch</v>
+        <v>587_洋牡丹橙_undefined_undefined_1bunch</v>
       </c>
       <c r="F21" t="str">
         <v>5</v>
@@ -609,153 +609,153 @@
     </row>
     <row r="22">
       <c r="C22" t="str">
-        <v>587_洋牡丹橙_undefined_undefined_1bunch</v>
+        <v>590_洋牡丹粉_undefined_undefined_1bunch</v>
       </c>
       <c r="F22" t="str">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23">
       <c r="C23" t="str">
-        <v>590_洋牡丹粉_undefined_undefined_1bunch</v>
+        <v>588_洋牡丹黄_undefined_undefined_1bunch</v>
       </c>
       <c r="F23" t="str">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="str">
+        <v>1</v>
+      </c>
       <c r="C24" t="str">
-        <v>588_洋牡丹黄_undefined_undefined_1bunch</v>
+        <v>193_粉爱神_Pink Cupid_Rosa rugosa Thunb._20stems</v>
       </c>
       <c r="F24" t="str">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="str">
-        <v>1</v>
-      </c>
       <c r="C25" t="str">
-        <v>193_粉爱神_Pink Cupid_Rosa rugosa Thunb._20stems</v>
+        <v>160_卡布奇诺_Cappuccino_Rosa rugosa Thunb._20stems</v>
       </c>
       <c r="F25" t="str">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
       <c r="C26" t="str">
-        <v>160_卡布奇诺_Cappuccino_Rosa rugosa Thunb._20stems</v>
+        <v>149_骄傲_Proud_Rosa rugosa Thunb._20stems</v>
       </c>
       <c r="F26" t="str">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27">
       <c r="C27" t="str">
-        <v>149_骄傲_Proud_Rosa rugosa Thunb._20stems</v>
+        <v>300_白星_White Gypso_ gypsophila_1kg</v>
       </c>
       <c r="F27" t="str">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="str">
+        <v>2</v>
+      </c>
       <c r="C28" t="str">
-        <v>300_白星_White Gypso_ gypsophila_1kg</v>
+        <v>321_雪柳叶_Spiraea  leaves_undefined_1bunch</v>
       </c>
       <c r="F28" t="str">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="str">
-        <v>2</v>
-      </c>
-      <c r="C29" t="str">
-        <v>321_雪柳叶_Spiraea  leaves_undefined_1bunch</v>
-      </c>
-      <c r="F29" t="str">
         <v>10</v>
       </c>
     </row>
-    <row r="30" xml:space="preserve">
-      <c r="C30" t="str" xml:space="preserve">
+    <row r="29" xml:space="preserve">
+      <c r="C29" t="str" xml:space="preserve">
         <v xml:space="preserve">349_千层金绿_Melaleuca bracteata
 （dyed orange）_Melaleuca bracteata F.Muell._1bunch</v>
       </c>
+      <c r="F29" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" t="str">
+        <v>540_糖棉_gomphocarpus fruticosus_undefined_1bunch</v>
+      </c>
       <c r="F30" t="str">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31">
       <c r="C31" t="str">
-        <v>540_糖棉_gomphocarpus fruticosus_undefined_1bunch</v>
+        <v>401_大飞燕白色_delphinium white_undefined_1bunch</v>
       </c>
       <c r="F31" t="str">
-        <v>3</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32">
       <c r="C32" t="str">
-        <v>401_大飞燕白色_delphinium white_undefined_1bunch</v>
+        <v>612_康乃馨古巴爱情_cuba love_undefined_20stems</v>
       </c>
       <c r="F32" t="str">
-        <v>40</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33">
       <c r="C33" t="str">
-        <v>612_康乃馨古巴爱情_cuba love_undefined_20stems</v>
+        <v>707_永生吊米白_undefined_undefined_1bunch</v>
       </c>
       <c r="F33" t="str">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34">
       <c r="C34" t="str">
-        <v>707_永生吊米白_undefined_undefined_1bunch</v>
+        <v>300_白星_White Gypso_ gypsophila_1kg</v>
       </c>
       <c r="F34" t="str">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="str">
+        <v>3</v>
+      </c>
       <c r="C35" t="str">
-        <v>300_白星_White Gypso_ gypsophila_1kg</v>
+        <v>155_曼塔_Menta_Rosa rugosa Thunb._20stems</v>
       </c>
       <c r="F35" t="str">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="str">
-        <v>3</v>
-      </c>
       <c r="C36" t="str">
-        <v>155_曼塔_Menta_Rosa rugosa Thunb._20stems</v>
+        <v>234_白泡泡_White Bubbles_Rosa rugosa Thunb._10stems</v>
       </c>
       <c r="F36" t="str">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37">
       <c r="C37" t="str">
-        <v>234_白泡泡_White Bubbles_Rosa rugosa Thunb._10stems</v>
+        <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
       <c r="F37" t="str">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38">
       <c r="C38" t="str">
-        <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+        <v>11_香槟洋桔梗_Champagne Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
       <c r="F38" t="str">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39">
       <c r="C39" t="str">
-        <v>11_香槟洋桔梗_Champagne Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+        <v>506_紫罗兰香槟色_violet champagne_undefined_1bunch</v>
       </c>
       <c r="F39" t="str">
         <v>5</v>
@@ -763,49 +763,41 @@
     </row>
     <row r="40">
       <c r="C40" t="str">
-        <v>506_紫罗兰香槟色_violet champagne_undefined_1bunch</v>
+        <v>49_亚丁_Pasta Rosata_Gerbera L._10stems</v>
       </c>
       <c r="F40" t="str">
         <v>5</v>
       </c>
     </row>
-    <row r="41">
-      <c r="C41" t="str">
-        <v>49_亚丁_Pasta Rosata_Gerbera L._10stems</v>
+    <row r="41" xml:space="preserve">
+      <c r="C41" t="str" xml:space="preserve">
+        <v xml:space="preserve">404_小飞燕白色_ delphinium ballkleid
+white_undefined_1bunch</v>
       </c>
       <c r="F41" t="str">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" xml:space="preserve">
       <c r="C42" t="str" xml:space="preserve">
-        <v xml:space="preserve">404_小飞燕白色_ delphinium ballkleid
-white_undefined_1bunch</v>
-      </c>
-      <c r="F42" t="str">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" xml:space="preserve">
-      <c r="C43" t="str" xml:space="preserve">
         <v xml:space="preserve">508_风铃花白色_Canterbury Bells 
 white_undefined_1bunch</v>
       </c>
+      <c r="F42" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" t="str">
+        <v>418_松虫草白_scabiosa white_undefined_1bunch</v>
+      </c>
       <c r="F43" t="str">
         <v>10</v>
       </c>
     </row>
-    <row r="44">
-      <c r="C44" t="str">
-        <v>418_松虫草白_scabiosa white_undefined_1bunch</v>
-      </c>
-      <c r="F44" t="str">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L44"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L43"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -863,7 +855,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01871377864104465655105551058919151053405103741055561010</v>
+        <v>0187137786410446555105551058919151053405103741055561010</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-7-2.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-7-2.xlsx
@@ -857,6 +857,9 @@
       <c r="G2" t="str">
         <v>0187137786410446555105551058919151053405103741055561010</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
